--- a/results/mp/logistic/corona/confidence/126/masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,36 +40,39 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -82,12 +85,12 @@
     <t>empty</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -100,172 +103,172 @@
     <t>prices</t>
   </si>
   <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>of</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>are</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>,</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>for</t>
   </si>
   <si>
     <t>in</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,7 +637,7 @@
         <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,13 +695,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>40</v>
@@ -742,13 +745,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.821917808219178</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -760,19 +763,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -784,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -792,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8157894736842105</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -810,19 +813,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K5">
-        <v>0.8888888888888888</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -834,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -842,7 +845,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C6">
         <v>29</v>
@@ -860,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K6">
-        <v>0.8833333333333333</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L6">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -884,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -892,13 +895,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7837837837837838</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -916,13 +919,13 @@
         <v>44</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -934,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -942,7 +945,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.675</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
         <v>27</v>
@@ -960,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K8">
-        <v>0.856020942408377</v>
+        <v>0.8359375</v>
       </c>
       <c r="L8">
-        <v>327</v>
+        <v>107</v>
       </c>
       <c r="M8">
-        <v>328</v>
+        <v>107</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -981,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -992,13 +995,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6470588235294118</v>
+        <v>0.625</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1010,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>0.851063829787234</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1034,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1042,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6101694915254238</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1060,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>0.8461538461538461</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1092,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5833333333333334</v>
+        <v>0.5978835978835979</v>
       </c>
       <c r="C11">
-        <v>301</v>
+        <v>113</v>
       </c>
       <c r="D11">
-        <v>301</v>
+        <v>113</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1110,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K11">
-        <v>0.84375</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L11">
-        <v>108</v>
+        <v>312</v>
       </c>
       <c r="M11">
-        <v>108</v>
+        <v>312</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1134,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1142,13 +1145,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5608465608465608</v>
+        <v>0.5717054263565892</v>
       </c>
       <c r="C12">
-        <v>106</v>
+        <v>295</v>
       </c>
       <c r="D12">
-        <v>106</v>
+        <v>295</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1160,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K12">
-        <v>0.8292682926829268</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1184,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1192,13 +1195,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4899328859060403</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C13">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1210,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K13">
-        <v>0.8275862068965517</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1234,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1242,13 +1245,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4555555555555555</v>
+        <v>0.5234899328859061</v>
       </c>
       <c r="C14">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="D14">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1260,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K14">
-        <v>0.8207547169811321</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L14">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1284,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1292,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.44</v>
+        <v>0.475</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1310,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K15">
-        <v>0.8181818181818182</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1334,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1342,7 +1345,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3666666666666666</v>
+        <v>0.44</v>
       </c>
       <c r="C16">
         <v>33</v>
@@ -1360,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K16">
-        <v>0.813953488372093</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1384,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1392,13 +1395,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3174603174603174</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C17">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1410,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K17">
-        <v>0.8125</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L17">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="M17">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1434,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1442,13 +1445,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3125</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1460,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K18">
-        <v>0.8055555555555556</v>
+        <v>0.775</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1484,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1492,13 +1495,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2332439678284182</v>
+        <v>0.2896825396825397</v>
       </c>
       <c r="C19">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D19">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1510,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K19">
-        <v>0.795774647887324</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L19">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1534,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1542,13 +1545,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1666666666666667</v>
+        <v>0.2117962466487936</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1560,31 +1563,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K20">
-        <v>0.7741935483870968</v>
+        <v>0.725</v>
       </c>
       <c r="L20">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1592,37 +1595,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03658141793460667</v>
+        <v>0.1533333333333333</v>
       </c>
       <c r="C21">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="E21">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>2976</v>
+        <v>254</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K21">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1634,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1642,37 +1645,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.03642671292281006</v>
+        <v>0.04047927461139896</v>
       </c>
       <c r="C22">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="E22">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="F22">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1111</v>
+        <v>2963</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K22">
-        <v>0.6875</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1684,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1692,37 +1695,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.03164855928200284</v>
+        <v>0.03457216940363008</v>
       </c>
       <c r="C23">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="E23">
-        <v>0.28</v>
+        <v>0.09</v>
       </c>
       <c r="F23">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2050</v>
+        <v>1117</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K23">
-        <v>0.6764705882352942</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L23">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="M23">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1734,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1742,37 +1745,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02896081771720613</v>
+        <v>0.03110599078341014</v>
       </c>
       <c r="C24">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E24">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="F24">
-        <v>0.6899999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2280</v>
+        <v>841</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K24">
-        <v>0.66</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1792,37 +1795,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01987281399046105</v>
+        <v>0.02548853016142736</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D25">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="E25">
-        <v>0.55</v>
+        <v>0.29</v>
       </c>
       <c r="F25">
-        <v>0.45</v>
+        <v>0.71</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1233</v>
+        <v>2294</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K25">
-        <v>0.6305084745762712</v>
+        <v>0.64</v>
       </c>
       <c r="L25">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1834,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>109</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1842,49 +1845,49 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01755926251097454</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D26">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E26">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="F26">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2238</v>
+        <v>2070</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K26">
-        <v>0.6179775280898876</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="L26">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="M26">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1892,49 +1895,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01682396389002873</v>
+        <v>0.01755424063116371</v>
       </c>
       <c r="C27">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D27">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E27">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="F27">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>4792</v>
+        <v>4981</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K27">
-        <v>0.6176470588235294</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L27">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="M27">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1942,49 +1945,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01557263946382811</v>
+        <v>0.01580333625987709</v>
       </c>
       <c r="C28">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="E28">
+        <v>0.46</v>
+      </c>
+      <c r="F28">
         <v>0.54</v>
       </c>
-      <c r="F28">
-        <v>0.46</v>
-      </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>4994</v>
+        <v>2242</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K28">
-        <v>0.6170212765957447</v>
+        <v>0.6156462585034014</v>
       </c>
       <c r="L28">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="M28">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>36</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1992,37 +1995,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01511969760604788</v>
+        <v>0.01550071384866408</v>
       </c>
       <c r="C29">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="E29">
-        <v>0.64</v>
+        <v>0.55</v>
       </c>
       <c r="F29">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2345</v>
+        <v>4827</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K29">
-        <v>0.6153846153846154</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2034,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2042,37 +2045,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0132387706855792</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D30">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="E30">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="F30">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2087</v>
+        <v>4189</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K30">
-        <v>0.5571428571428572</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2084,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2092,37 +2095,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01249116191374028</v>
+        <v>0.01343973120537589</v>
       </c>
       <c r="C31">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="E31">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="F31">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>4190</v>
+        <v>2349</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K31">
-        <v>0.5294117647058824</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2134,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2142,37 +2145,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01129396579541788</v>
+        <v>0.01286549707602339</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E32">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="F32">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>3064</v>
+        <v>2532</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K32">
-        <v>0.4657534246575342</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2184,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2192,37 +2195,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.01126651126651127</v>
+        <v>0.01188946015424164</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D33">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E33">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="F33">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2545</v>
+        <v>3075</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K33">
-        <v>0.4230769230769231</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2234,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2242,25 +2245,25 @@
         <v>71</v>
       </c>
       <c r="K34">
-        <v>0.2380952380952381</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N34">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2268,7 +2271,7 @@
         <v>72</v>
       </c>
       <c r="K35">
-        <v>0.217741935483871</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="L35">
         <v>27</v>
@@ -2286,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>97</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2294,25 +2297,25 @@
         <v>73</v>
       </c>
       <c r="K36">
-        <v>0.09446254071661238</v>
+        <v>0.09879518072289156</v>
       </c>
       <c r="L36">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>278</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2320,25 +2323,25 @@
         <v>74</v>
       </c>
       <c r="K37">
-        <v>0.07380073800738007</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N37">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>502</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2346,25 +2349,25 @@
         <v>75</v>
       </c>
       <c r="K38">
-        <v>0.0728643216080402</v>
+        <v>0.07780979827089338</v>
       </c>
       <c r="L38">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>1107</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2372,25 +2375,25 @@
         <v>76</v>
       </c>
       <c r="K39">
-        <v>0.07163323782234957</v>
+        <v>0.07466442953020135</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>324</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2398,25 +2401,25 @@
         <v>77</v>
       </c>
       <c r="K40">
-        <v>0.07004830917874397</v>
+        <v>0.06813996316758748</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N40">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="O40">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>385</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2424,77 +2427,77 @@
         <v>78</v>
       </c>
       <c r="K41">
-        <v>0.06987951807228916</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>386</v>
+        <v>860</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K42">
-        <v>0.03744326777609682</v>
+        <v>0.04381846635367762</v>
       </c>
       <c r="L42">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="M42">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="N42">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="O42">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>2545</v>
+        <v>611</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K43">
-        <v>0.03462321792260693</v>
+        <v>0.0427263479145473</v>
       </c>
       <c r="L43">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M43">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N43">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="O43">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>948</v>
+        <v>941</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2502,129 +2505,129 @@
         <v>37</v>
       </c>
       <c r="K44">
-        <v>0.03221730890713834</v>
+        <v>0.04090909090909091</v>
       </c>
       <c r="L44">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M44">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N44">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="O44">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>3064</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K45">
-        <v>0.03114571746384872</v>
+        <v>0.02980392156862745</v>
       </c>
       <c r="L45">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M45">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N45">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
       <c r="O45">
-        <v>0.06999999999999995</v>
+        <v>0.27</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>871</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K46">
-        <v>0.02928071292170592</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L46">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="M46">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="N46">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="O46">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>1525</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="K47">
-        <v>0.02692469499368953</v>
+        <v>0.02812895069532238</v>
       </c>
       <c r="L47">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="M47">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="N47">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="O47">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>2313</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K48">
-        <v>0.0265670402656704</v>
+        <v>0.02652300041442188</v>
       </c>
       <c r="L48">
         <v>64</v>
       </c>
       <c r="M48">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N48">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="O48">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>2345</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2632,117 +2635,117 @@
         <v>83</v>
       </c>
       <c r="K49">
-        <v>0.02606177606177606</v>
+        <v>0.025965801139962</v>
       </c>
       <c r="L49">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M49">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N49">
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
       <c r="O49">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>1009</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K50">
-        <v>0.02482702482702483</v>
+        <v>0.01890243902439024</v>
       </c>
       <c r="L50">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="M50">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="N50">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="O50">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>4792</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K51">
-        <v>0.0245253164556962</v>
+        <v>0.01873975169829</v>
       </c>
       <c r="L51">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="M51">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="N51">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="O51">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1233</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K52">
-        <v>0.02018779342723005</v>
+        <v>0.01871552403467297</v>
       </c>
       <c r="L52">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="M52">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="N52">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="O52">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>2087</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="K53">
-        <v>0.01988304093567252</v>
+        <v>0.01779859484777518</v>
       </c>
       <c r="L53">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="M53">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="N53">
         <v>0.62</v>
@@ -2754,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>4190</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2762,25 +2765,25 @@
         <v>33</v>
       </c>
       <c r="K54">
-        <v>0.01808887141171844</v>
+        <v>0.01363836339639243</v>
       </c>
       <c r="L54">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="M54">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="N54">
+        <v>0.46</v>
+      </c>
+      <c r="O54">
         <v>0.54</v>
       </c>
-      <c r="O54">
-        <v>0.46</v>
-      </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>4994</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2788,77 +2791,51 @@
         <v>31</v>
       </c>
       <c r="K55">
-        <v>0.01366240634640811</v>
+        <v>0.01334604385128694</v>
       </c>
       <c r="L55">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M55">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N55">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="O55">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>2238</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K56">
-        <v>0.01341410644742536</v>
+        <v>0.01078050884001725</v>
       </c>
       <c r="L56">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M56">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="N56">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="O56">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K57">
-        <v>0.01252408477842004</v>
-      </c>
-      <c r="L57">
-        <v>26</v>
-      </c>
-      <c r="M57">
-        <v>93</v>
-      </c>
-      <c r="N57">
-        <v>0.28</v>
-      </c>
-      <c r="O57">
-        <v>0.72</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>2050</v>
+        <v>2294</v>
       </c>
     </row>
   </sheetData>
